--- a/diagramas/UseCases/EscolherConfiguracaoOtima.xlsx
+++ b/diagramas/UseCases/EscolherConfiguracaoOtima.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Configura-Facil\diagramas\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE2F0456-20AD-4267-B3AE-71B9FF6285B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511B16AE-ACD6-45F4-B03D-BC9AFE3B4B6D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Actor input</t>
   </si>
   <si>
     <t>System response</t>
-  </si>
-  <si>
-    <t>Cenário ...</t>
   </si>
   <si>
     <t>Cenário 
@@ -52,25 +49,59 @@
     <t>Pós condição:</t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
     <t>Utilizador</t>
   </si>
   <si>
     <t>Escolher configuração ótima</t>
+  </si>
+  <si>
+    <t>Todos os componentes primários encontram-se selecionados</t>
+  </si>
+  <si>
+    <t>1. Insere valor que está disposto a gastar</t>
+  </si>
+  <si>
+    <t>2. Calcula configuração que maximiza o valor a gastar dentro do limite indicado</t>
+  </si>
+  <si>
+    <t>3. Apresenta configuração sugerida</t>
+  </si>
+  <si>
+    <t>4. Aceita a configuração proposta</t>
+  </si>
+  <si>
+    <t>5. Adiciona os componentes aos componentes selecionados</t>
+  </si>
+  <si>
+    <t>Cenário Alternativo 1 [não aceita configuração proposta] (passo 3)</t>
+  </si>
+  <si>
+    <t>3.1 Requisita a inserção de um novo valor</t>
+  </si>
+  <si>
+    <t>3.2 Regressa a 1</t>
+  </si>
+  <si>
+    <t>Exceção 2 [não insere novo valor] (passo 3.1)</t>
+  </si>
+  <si>
+    <t>3.1.1 Informa de insucesso a calcular configuração ótima</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -260,41 +291,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1247600E-1397-C742-A058-B663B513FA0A}">
-  <dimension ref="B1:D19"/>
+  <dimension ref="B1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -626,121 +668,153 @@
   <sheetData>
     <row r="1" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="14"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16"/>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="16"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
+    <row r="11" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="16"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="19" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="10"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="10"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="17"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="17"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -749,5 +823,6 @@
     <mergeCell ref="B6:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/diagramas/UseCases/EscolherConfiguracaoOtima.xlsx
+++ b/diagramas/UseCases/EscolherConfiguracaoOtima.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Configura-Facil\diagramas\UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelarodrigues/Desktop/Trabalhos/DSS/Configura-Facil/diagramas/UseCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511B16AE-ACD6-45F4-B03D-BC9AFE3B4B6D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27C86F5-E2AC-AC49-A70E-B644C3F7C2AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,6 +305,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,21 +337,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,57 +652,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1247600E-1397-C742-A058-B663B513FA0A}">
-  <dimension ref="B1:D22"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="13" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -712,115 +712,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
+    <row r="7" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:4" ht="57" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="14"/>
+    <row r="8" spans="2:4" ht="58" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="14"/>
+    <row r="9" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19"/>
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14"/>
+    <row r="10" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19"/>
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="14"/>
+    <row r="11" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="19"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14"/>
+    <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="14"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="14"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="18"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="18"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="17" t="s">
+    <row r="15" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="19" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="17"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="17"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="2"/>
+    <row r="17" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/diagramas/UseCases/EscolherConfiguracaoOtima.xlsx
+++ b/diagramas/UseCases/EscolherConfiguracaoOtima.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelarodrigues/Desktop/Trabalhos/DSS/Configura-Facil/diagramas/UseCases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Configura-Facil\diagramas\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27C86F5-E2AC-AC49-A70E-B644C3F7C2AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0F0CC6-AF2A-4B30-964A-4A1E4D97FDD8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Actor input</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>3.1.1 Informa de insucesso a calcular configuração ótima</t>
+  </si>
+  <si>
+    <t>Configuração do carro completa</t>
   </si>
 </sst>
 </file>
@@ -655,19 +658,19 @@
   <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
     <col min="4" max="4" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
@@ -676,7 +679,7 @@
       </c>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -685,7 +688,7 @@
       </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -694,14 +697,16 @@
       </c>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
@@ -712,47 +717,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="19"/>
       <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:4" ht="58" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="57" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="19"/>
       <c r="C8" s="4"/>
       <c r="D8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="19"/>
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="19"/>
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19"/>
       <c r="C11" s="4"/>
       <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19"/>
       <c r="C12" s="5"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
@@ -761,19 +766,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13"/>
       <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -782,7 +787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2"/>

--- a/diagramas/UseCases/EscolherConfiguracaoOtima.xlsx
+++ b/diagramas/UseCases/EscolherConfiguracaoOtima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Configura-Facil\diagramas\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0F0CC6-AF2A-4B30-964A-4A1E4D97FDD8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE24946-0FE4-4E34-84E5-4A38E29ECF7A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Actor input</t>
   </si>
@@ -76,19 +76,16 @@
     <t>Cenário Alternativo 1 [não aceita configuração proposta] (passo 3)</t>
   </si>
   <si>
-    <t>3.1 Requisita a inserção de um novo valor</t>
-  </si>
-  <si>
-    <t>3.2 Regressa a 1</t>
-  </si>
-  <si>
-    <t>Exceção 2 [não insere novo valor] (passo 3.1)</t>
-  </si>
-  <si>
     <t>3.1.1 Informa de insucesso a calcular configuração ótima</t>
   </si>
   <si>
     <t>Configuração do carro completa</t>
+  </si>
+  <si>
+    <t>3.1 Regressa a 1</t>
+  </si>
+  <si>
+    <t>Exceção 2 [não insere novo valor] (passo 1)</t>
   </si>
 </sst>
 </file>
@@ -104,14 +101,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -296,50 +293,50 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1247600E-1397-C742-A058-B663B513FA0A}">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -674,40 +671,40 @@
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="17"/>
+      <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -718,73 +715,71 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="57" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="4"/>
       <c r="D8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="19"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="4"/>
       <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="13"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="13"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
